--- a/Data Analysis/Subject Data.xlsx
+++ b/Data Analysis/Subject Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaml\Documents\Github\BuzzBuzz\Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483FC85-86DC-4AD8-BD25-9E03DCFB48A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD9EB7-7737-4ACC-9C36-99A05E6AD46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,6 +322,7 @@
     <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -558,38 +559,38 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="34"/>
+      <c r="D1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="5"/>
@@ -1186,7 +1187,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1196,14 +1197,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1387,14 +1388,14 @@
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1578,14 +1579,14 @@
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1769,21 +1770,21 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1850,36 +1851,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
-        <v>4</v>
-      </c>
-      <c r="B4" s="25">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26">
-        <v>4.9305555555555554E-2</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
-        <v>2</v>
-      </c>
-      <c r="F4" s="25">
-        <v>3</v>
-      </c>
-      <c r="G4" s="25">
-        <v>3</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25">
-        <v>3</v>
-      </c>
-      <c r="J4" s="25">
-        <v>-4</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -1978,15 +1959,36 @@
       <c r="Z6" s="30"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
@@ -2013,14 +2015,14 @@
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -2204,14 +2206,14 @@
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
